--- a/v01/fab/bom/lighthouse-v01_bom.xlsx
+++ b/v01/fab/bom/lighthouse-v01_bom.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23820" windowHeight="14955"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="LightHouse_v01_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="144">
   <si>
     <t>Qty</t>
   </si>
@@ -403,9 +403,6 @@
     <t>311-49.9KHRCT-ND</t>
   </si>
   <si>
-    <t>P15.8KHTR-ND</t>
-  </si>
-  <si>
     <t>450-1804-ND</t>
   </si>
   <si>
@@ -434,13 +431,28 @@
   </si>
   <si>
     <t>Total / Brd</t>
+  </si>
+  <si>
+    <t>Total Needed</t>
+  </si>
+  <si>
+    <t>Total Brds</t>
+  </si>
+  <si>
+    <t>Total Ordered</t>
+  </si>
+  <si>
+    <t>311-15.8KHRCT-ND</t>
+  </si>
+  <si>
+    <t>Covered</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -934,6 +946,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -983,7 +1008,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1001,6 +1026,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1049,6 +1082,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1127,6 +1165,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1161,6 +1200,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1336,17 +1376,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -1357,7 +1397,7 @@
     <col min="8" max="8" width="4.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1383,10 +1423,22 @@
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>105</v>
       </c>
@@ -1415,8 +1467,22 @@
         <f>G2*H2</f>
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="5">
+        <f>$M$2*H2</f>
+        <v>40</v>
+      </c>
+      <c r="K2" s="5">
+        <v>100</v>
+      </c>
+      <c r="L2" s="5" t="str">
+        <f>IF(K2&gt;J2,"True","False")</f>
+        <v>True</v>
+      </c>
+      <c r="M2" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -1445,8 +1511,19 @@
         <f t="shared" ref="I3:I31" si="0">G3*H3</f>
         <v>0.14860000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J31" si="1">$M$2*H3</f>
+        <v>40</v>
+      </c>
+      <c r="K3" s="5">
+        <v>60</v>
+      </c>
+      <c r="L3" s="5" t="str">
+        <f t="shared" ref="L3:L31" si="2">IF(K3&gt;J3,"True","False")</f>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1475,8 +1552,19 @@
         <f t="shared" si="0"/>
         <v>0.1855</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K4" s="5">
+        <v>25</v>
+      </c>
+      <c r="L4" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -1505,8 +1593,19 @@
         <f t="shared" si="0"/>
         <v>0.38640000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="5">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="K5" s="12">
+        <v>100</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
@@ -1531,8 +1630,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1561,8 +1669,19 @@
         <f t="shared" si="0"/>
         <v>7.1400000000000005E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="30">
+      <c r="J7" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K7" s="12">
+        <v>50</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1591,8 +1710,19 @@
         <f t="shared" si="0"/>
         <v>0.1056</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="5">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="K8" s="12">
+        <v>500</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -1619,8 +1749,19 @@
         <f t="shared" si="0"/>
         <v>0.23799999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K9" s="12">
+        <v>25</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>65</v>
       </c>
@@ -1649,8 +1790,19 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K10" s="12">
+        <v>5</v>
+      </c>
+      <c r="L10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>69</v>
       </c>
@@ -1679,8 +1831,19 @@
         <f t="shared" si="0"/>
         <v>0.51700000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K11" s="12">
+        <v>25</v>
+      </c>
+      <c r="L11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>91</v>
       </c>
@@ -1709,8 +1872,19 @@
         <f t="shared" si="0"/>
         <v>1.3160000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="5">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="K12" s="12">
+        <v>40</v>
+      </c>
+      <c r="L12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
@@ -1735,8 +1909,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>73</v>
       </c>
@@ -1765,8 +1948,19 @@
         <f t="shared" si="0"/>
         <v>0.216</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K14" s="12">
+        <v>24</v>
+      </c>
+      <c r="L14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>80</v>
       </c>
@@ -1795,8 +1989,17 @@
         <f t="shared" si="0"/>
         <v>1.4949999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>120</v>
       </c>
@@ -1825,8 +2028,19 @@
         <f t="shared" si="0"/>
         <v>1.292</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K16" s="12">
+        <v>50</v>
+      </c>
+      <c r="L16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>121</v>
       </c>
@@ -1855,8 +2069,19 @@
         <f t="shared" si="0"/>
         <v>2.1339999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K17" s="12">
+        <v>50</v>
+      </c>
+      <c r="L17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1883,8 +2108,19 @@
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K18" s="12">
+        <v>25</v>
+      </c>
+      <c r="L18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
@@ -1911,8 +2147,19 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K19" s="12">
+        <v>25</v>
+      </c>
+      <c r="L19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>39</v>
       </c>
@@ -1941,8 +2188,19 @@
         <f t="shared" si="0"/>
         <v>1.44E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="5">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="K20" s="12">
+        <v>100</v>
+      </c>
+      <c r="L20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -1971,8 +2229,19 @@
         <f t="shared" si="0"/>
         <v>2.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K21" s="12">
+        <v>200</v>
+      </c>
+      <c r="L21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -2001,8 +2270,19 @@
         <f t="shared" si="0"/>
         <v>6.3E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K22" s="12">
+        <v>100</v>
+      </c>
+      <c r="L22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -2019,7 +2299,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G23" s="2">
         <v>2.2799999999999999E-3</v>
@@ -2031,8 +2311,19 @@
         <f t="shared" si="0"/>
         <v>2.2799999999999999E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K23" s="12">
+        <v>100</v>
+      </c>
+      <c r="L23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2049,7 +2340,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
@@ -2061,8 +2352,19 @@
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K24" s="12">
+        <v>25</v>
+      </c>
+      <c r="L24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>95</v>
       </c>
@@ -2079,7 +2381,7 @@
         <v>96</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G25" s="2">
         <v>1.518</v>
@@ -2091,8 +2393,19 @@
         <f t="shared" si="0"/>
         <v>4.5540000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="5">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="K25" s="12">
+        <v>100</v>
+      </c>
+      <c r="L25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>88</v>
       </c>
@@ -2109,7 +2422,7 @@
         <v>89</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G26" s="2">
         <v>0.128</v>
@@ -2121,8 +2434,19 @@
         <f t="shared" si="0"/>
         <v>0.128</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K26" s="12">
+        <v>100</v>
+      </c>
+      <c r="L26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -2139,7 +2463,7 @@
         <v>52</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G27" s="2">
         <v>3.54</v>
@@ -2151,8 +2475,19 @@
         <f t="shared" si="0"/>
         <v>3.54</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="30">
+      <c r="J27" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K27" s="12">
+        <v>25</v>
+      </c>
+      <c r="L27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>102</v>
       </c>
@@ -2169,7 +2504,7 @@
         <v>103</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" s="2">
         <v>22.39</v>
@@ -2181,8 +2516,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>False</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -2199,7 +2543,7 @@
         <v>48</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29" s="2">
         <v>0.47260000000000002</v>
@@ -2211,8 +2555,19 @@
         <f t="shared" si="0"/>
         <v>0.47260000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K29" s="12">
+        <v>25</v>
+      </c>
+      <c r="L29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
@@ -2229,7 +2584,7 @@
         <v>85</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G30" s="2">
         <v>3.78E-2</v>
@@ -2241,8 +2596,19 @@
         <f t="shared" si="0"/>
         <v>3.78E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1">
+      <c r="J30" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K30" s="12">
+        <v>100</v>
+      </c>
+      <c r="L30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>99</v>
       </c>
@@ -2259,7 +2625,7 @@
         <v>100</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G31" s="6">
         <v>0.54600000000000004</v>
@@ -2271,10 +2637,21 @@
         <f t="shared" si="0"/>
         <v>0.54600000000000004</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K31" s="12">
+        <v>25</v>
+      </c>
+      <c r="L31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>True</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I32" s="8">
         <f>SUM(I2:I31)</f>
@@ -2288,9 +2665,9 @@
   <conditionalFormatting sqref="I2:I31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
@@ -2317,15 +2694,15 @@
     <hyperlink ref="F20" r:id="rId17" display="http://www.digikey.com/product-detail/en/RC0603JR-07680RL/311-680GRCT-ND/729766"/>
     <hyperlink ref="F21" r:id="rId18" display="http://www.digikey.com/product-detail/en/RC0603JR-0768KL/311-68KGRCT-ND/729769"/>
     <hyperlink ref="F22" r:id="rId19" display="http://www.digikey.com/product-detail/en/RC0603FR-0749K9L/311-49.9KHRCT-ND/730212"/>
-    <hyperlink ref="F23" r:id="rId20" display="http://www.digikey.com/product-detail/en/ERJ-3EKF1582V/P15.8KHTR-ND/196137"/>
-    <hyperlink ref="F24" r:id="rId21" display="http://www.digikey.com/product-detail/en/1825910-7/450-1804-ND/1731414"/>
-    <hyperlink ref="F25" r:id="rId22" display="http://www.digikey.com/product-detail/en/TLC59401PWPR/296-25565-1-ND/2197044"/>
-    <hyperlink ref="F26" r:id="rId23" display="http://www.digikey.com/product-detail/en/SN74LVC244APWR/296-1230-1-ND/276498"/>
-    <hyperlink ref="F27" r:id="rId24" display="http://www.digikey.com/product-detail/en/ATMEGA644A-AU/ATMEGA644A-AU-ND/2271045"/>
-    <hyperlink ref="F28" r:id="rId25" display="http://octopart-clicks.com/click/vptrack?ak=68b25f31&amp;vpid=45997908"/>
-    <hyperlink ref="F29" r:id="rId26" display="http://www.digikey.com/product-detail/en/AOZ1280CI/785-1277-1-ND/2769845"/>
-    <hyperlink ref="F30" r:id="rId27" display="http://www.digikey.com/product-detail/en/SN74LVC1G125DBVR/296-11603-1-ND/385742"/>
-    <hyperlink ref="F31" r:id="rId28" display="http://www.digikey.com/product-detail/en/USB-M26FTR/ED2992CT-ND/2677756"/>
+    <hyperlink ref="F24" r:id="rId20" display="http://www.digikey.com/product-detail/en/1825910-7/450-1804-ND/1731414"/>
+    <hyperlink ref="F25" r:id="rId21" display="http://www.digikey.com/product-detail/en/TLC59401PWPR/296-25565-1-ND/2197044"/>
+    <hyperlink ref="F26" r:id="rId22" display="http://www.digikey.com/product-detail/en/SN74LVC244APWR/296-1230-1-ND/276498"/>
+    <hyperlink ref="F27" r:id="rId23" display="http://www.digikey.com/product-detail/en/ATMEGA644A-AU/ATMEGA644A-AU-ND/2271045"/>
+    <hyperlink ref="F28" r:id="rId24" display="http://octopart-clicks.com/click/vptrack?ak=68b25f31&amp;vpid=45997908"/>
+    <hyperlink ref="F29" r:id="rId25" display="http://www.digikey.com/product-detail/en/AOZ1280CI/785-1277-1-ND/2769845"/>
+    <hyperlink ref="F30" r:id="rId26" display="http://www.digikey.com/product-detail/en/SN74LVC1G125DBVR/296-11603-1-ND/385742"/>
+    <hyperlink ref="F31" r:id="rId27" display="http://www.digikey.com/product-detail/en/USB-M26FTR/ED2992CT-ND/2677756"/>
+    <hyperlink ref="F23" r:id="rId28" display="http://www.digikey.com/product-detail/en/RC0603FR-0715K8L/311-15.8KHRCT-ND/729904"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId29"/>

--- a/v01/fab/bom/lighthouse-v01_bom.xlsx
+++ b/v01/fab/bom/lighthouse-v01_bom.xlsx
@@ -163,9 +163,6 @@
     <t>1.2A Buck Regulator</t>
   </si>
   <si>
-    <t>ATMEGA644A-AU</t>
-  </si>
-  <si>
     <t>TQFP-44</t>
   </si>
   <si>
@@ -406,15 +403,9 @@
     <t>450-1804-ND</t>
   </si>
   <si>
-    <t>296-25565-1-ND</t>
-  </si>
-  <si>
     <t>296-1230-1-ND</t>
   </si>
   <si>
-    <t>ATMEGA644A-AU-ND</t>
-  </si>
-  <si>
     <t>950-WIZ820IO</t>
   </si>
   <si>
@@ -446,6 +437,15 @@
   </si>
   <si>
     <t>Covered</t>
+  </si>
+  <si>
+    <t>296-17733-5-ND</t>
+  </si>
+  <si>
+    <t>ATMEGA164A-AU-ND</t>
+  </si>
+  <si>
+    <t>ATMEGA164A-AU</t>
   </si>
 </sst>
 </file>
@@ -1382,8 +1382,8 @@
   </sheetPr>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,33 +1414,33 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1455,7 +1455,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2">
         <v>8.5000000000000006E-3</v>
@@ -1499,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" s="2">
         <v>7.4300000000000005E-2</v>
@@ -1540,7 +1540,7 @@
         <v>29</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="2">
         <v>0.1855</v>
@@ -1581,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="2">
         <v>9.6600000000000005E-2</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -1657,7 +1657,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G7" s="2">
         <v>7.1400000000000005E-2</v>
@@ -1698,7 +1698,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="2">
         <v>8.8000000000000005E-3</v>
@@ -1715,7 +1715,7 @@
         <v>240</v>
       </c>
       <c r="K8" s="12">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="L8" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1724,20 +1724,20 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="2">
         <v>0.23799999999999999</v>
@@ -1763,22 +1763,22 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10" s="2">
         <v>4.5</v>
@@ -1804,22 +1804,22 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G11" s="2">
         <v>0.51700000000000002</v>
@@ -1845,22 +1845,22 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G12" s="2">
         <v>0.32900000000000001</v>
@@ -1877,7 +1877,7 @@
         <v>80</v>
       </c>
       <c r="K12" s="12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L12" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1886,19 +1886,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1921,22 +1921,22 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G14" s="2">
         <v>0.216</v>
@@ -1962,22 +1962,22 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G15" s="2">
         <v>0.29899999999999999</v>
@@ -2001,22 +2001,22 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" s="2">
         <v>0.64600000000000002</v>
@@ -2042,22 +2042,22 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="G17" s="2">
         <v>1.0669999999999999</v>
@@ -2086,7 +2086,7 @@
         <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G18" s="2">
         <v>0.27</v>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G19" s="2">
         <v>0.05</v>
@@ -2176,7 +2176,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G20" s="2">
         <v>4.7999999999999996E-3</v>
@@ -2217,7 +2217,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G21" s="2">
         <v>4.7999999999999996E-3</v>
@@ -2234,7 +2234,7 @@
         <v>100</v>
       </c>
       <c r="K21" s="12">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="L21" s="5" t="str">
         <f t="shared" si="2"/>
@@ -2258,7 +2258,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G22" s="2">
         <v>6.3E-3</v>
@@ -2299,7 +2299,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G23" s="2">
         <v>2.2799999999999999E-3</v>
@@ -2340,7 +2340,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G24" s="2">
         <v>0.1</v>
@@ -2366,22 +2366,22 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G25" s="2">
         <v>1.518</v>
@@ -2407,22 +2407,22 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G26" s="2">
         <v>0.128</v>
@@ -2448,22 +2448,22 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F27" s="3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G27" s="2">
         <v>3.54</v>
@@ -2489,22 +2489,22 @@
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F28" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G28" s="2">
         <v>22.39</v>
@@ -2543,7 +2543,7 @@
         <v>48</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G29" s="2">
         <v>0.47260000000000002</v>
@@ -2569,22 +2569,22 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F30" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G30" s="2">
         <v>3.78E-2</v>
@@ -2610,22 +2610,22 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G31" s="6">
         <v>0.54600000000000004</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I32" s="8">
         <f>SUM(I2:I31)</f>
@@ -2695,14 +2695,14 @@
     <hyperlink ref="F21" r:id="rId18" display="http://www.digikey.com/product-detail/en/RC0603JR-0768KL/311-68KGRCT-ND/729769"/>
     <hyperlink ref="F22" r:id="rId19" display="http://www.digikey.com/product-detail/en/RC0603FR-0749K9L/311-49.9KHRCT-ND/730212"/>
     <hyperlink ref="F24" r:id="rId20" display="http://www.digikey.com/product-detail/en/1825910-7/450-1804-ND/1731414"/>
-    <hyperlink ref="F25" r:id="rId21" display="http://www.digikey.com/product-detail/en/TLC59401PWPR/296-25565-1-ND/2197044"/>
-    <hyperlink ref="F26" r:id="rId22" display="http://www.digikey.com/product-detail/en/SN74LVC244APWR/296-1230-1-ND/276498"/>
-    <hyperlink ref="F27" r:id="rId23" display="http://www.digikey.com/product-detail/en/ATMEGA644A-AU/ATMEGA644A-AU-ND/2271045"/>
-    <hyperlink ref="F28" r:id="rId24" display="http://octopart-clicks.com/click/vptrack?ak=68b25f31&amp;vpid=45997908"/>
-    <hyperlink ref="F29" r:id="rId25" display="http://www.digikey.com/product-detail/en/AOZ1280CI/785-1277-1-ND/2769845"/>
-    <hyperlink ref="F30" r:id="rId26" display="http://www.digikey.com/product-detail/en/SN74LVC1G125DBVR/296-11603-1-ND/385742"/>
-    <hyperlink ref="F31" r:id="rId27" display="http://www.digikey.com/product-detail/en/USB-M26FTR/ED2992CT-ND/2677756"/>
-    <hyperlink ref="F23" r:id="rId28" display="http://www.digikey.com/product-detail/en/RC0603FR-0715K8L/311-15.8KHRCT-ND/729904"/>
+    <hyperlink ref="F26" r:id="rId21" display="http://www.digikey.com/product-detail/en/SN74LVC244APWR/296-1230-1-ND/276498"/>
+    <hyperlink ref="F28" r:id="rId22" display="http://octopart-clicks.com/click/vptrack?ak=68b25f31&amp;vpid=45997908"/>
+    <hyperlink ref="F29" r:id="rId23" display="http://www.digikey.com/product-detail/en/AOZ1280CI/785-1277-1-ND/2769845"/>
+    <hyperlink ref="F30" r:id="rId24" display="http://www.digikey.com/product-detail/en/SN74LVC1G125DBVR/296-11603-1-ND/385742"/>
+    <hyperlink ref="F31" r:id="rId25" display="http://www.digikey.com/product-detail/en/USB-M26FTR/ED2992CT-ND/2677756"/>
+    <hyperlink ref="F23" r:id="rId26" display="http://www.digikey.com/product-detail/en/RC0603FR-0715K8L/311-15.8KHRCT-ND/729904"/>
+    <hyperlink ref="F25" r:id="rId27" display="http://www.digikey.com/product-detail/en/TLC5940PWP/296-17733-5-ND/716897"/>
+    <hyperlink ref="F27" r:id="rId28" display="http://www.digikey.com/product-detail/en/ATMEGA164A-AU/ATMEGA164A-AU-ND/2271202"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId29"/>
